--- a/doc/接口文档/青麦角色接口.xlsx
+++ b/doc/接口文档/青麦角色接口.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="角色" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>添加青麦角色</t>
   </si>
@@ -104,6 +104,12 @@
     <t>角色说明</t>
   </si>
   <si>
+    <t>qmPermissionPid</t>
+  </si>
+  <si>
+    <t>角色代码</t>
+  </si>
+  <si>
     <t>删除青麦角色</t>
   </si>
   <si>
@@ -178,19 +184,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +219,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,31 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,44 +326,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -351,12 +343,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,7 +400,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,145 +514,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,21 +574,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -630,15 +584,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,6 +599,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,15 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -692,153 +652,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,34 +815,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="39" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="40" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="40" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="36" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="36" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81:G81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1431,34 +1400,34 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:18">
-      <c r="A17" s="2" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:18">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7">
-        <v>100</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1474,96 +1443,92 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:18">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:18">
-      <c r="A19" s="3" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:18">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:18">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:18">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1578,51 +1543,55 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:18">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="7">
-        <v>100</v>
-      </c>
+    <row r="23" s="1" customFormat="1" spans="1:18">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:18">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1638,96 +1607,92 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:18">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:18">
-      <c r="A32" s="3" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:18">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:18">
-      <c r="A33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:18">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1742,17 +1707,21 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="7"/>
@@ -1766,11 +1735,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -1790,11 +1759,11 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1807,34 +1776,58 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:18">
-      <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="7">
-        <v>100</v>
-      </c>
+    <row r="38" s="1" customFormat="1" spans="1:18">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:18">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:18">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1850,100 +1843,96 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:18">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" s="6" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:18">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:18">
-      <c r="A47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-    </row>
     <row r="48" s="1" customFormat="1" spans="1:18">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -1957,21 +1946,21 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -1986,21 +1975,23 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="K50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
@@ -2011,20 +2002,22 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
+      <c r="K51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
@@ -2035,17 +2028,17 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2065,11 +2058,11 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2077,34 +2070,58 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:18">
-      <c r="A59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="7">
-        <v>100</v>
-      </c>
+    <row r="54" s="1" customFormat="1" spans="1:18">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:18">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:18">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2120,96 +2137,92 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:18">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:18">
-      <c r="A61" s="3" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:18">
+      <c r="A62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:18">
-      <c r="A62" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:18">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F63" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -2224,21 +2237,23 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
+      <c r="K64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
@@ -2249,20 +2264,22 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="K65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
@@ -2279,11 +2296,11 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -2303,11 +2320,11 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -2315,34 +2332,58 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:18">
-      <c r="A76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="7">
-        <v>100</v>
-      </c>
+    <row r="68" s="1" customFormat="1" spans="1:18">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:18">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:18">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2358,96 +2399,92 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:18">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:18">
-      <c r="A78" s="3" t="s">
+    <row r="79" s="1" customFormat="1" spans="1:18">
+      <c r="A79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:18">
-      <c r="A79" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:18">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F80" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -2456,25 +2493,29 @@
       <c r="R80" s="7"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:18">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
+      <c r="K81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
@@ -2485,13 +2526,15 @@
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="F82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -2502,31 +2545,53 @@
       <c r="R82" s="7"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:18">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
     </row>
+    <row r="84" s="1" customFormat="1" spans="1:18">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="176">
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A3:D3"/>
@@ -2550,17 +2615,15 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="K21:L21"/>
@@ -2569,17 +2632,17 @@
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:O23"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="K34:L34"/>
@@ -2596,18 +2659,20 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:O46"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:L48"/>
@@ -2618,11 +2683,11 @@
     <mergeCell ref="M49:O49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:O50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:O50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="K51:O51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="K52:L52"/>
@@ -2631,28 +2696,32 @@
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:O55"/>
     <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="P61:Q61"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:O63"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:O64"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="K65:O65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
     <mergeCell ref="K66:L66"/>
@@ -2661,17 +2730,21 @@
     <mergeCell ref="H67:J67"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
     <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:O78"/>
+    <mergeCell ref="P78:Q78"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="K79:O79"/>
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="H80:J80"/>
     <mergeCell ref="K80:L80"/>
@@ -2680,17 +2753,21 @@
     <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:O81"/>
-    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="K82:L82"/>
     <mergeCell ref="M82:O82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
     <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A17:O18"/>
-    <mergeCell ref="A30:O31"/>
-    <mergeCell ref="A44:O45"/>
-    <mergeCell ref="A59:O60"/>
-    <mergeCell ref="A76:O77"/>
+    <mergeCell ref="A18:O19"/>
+    <mergeCell ref="A31:O32"/>
+    <mergeCell ref="A45:O46"/>
+    <mergeCell ref="A60:O61"/>
+    <mergeCell ref="A77:O78"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
